--- a/Tests/res_ping_good.xlsx
+++ b/Tests/res_ping_good.xlsx
@@ -25,10 +25,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -45,13 +45,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,11 +75,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -79,16 +88,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +122,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -111,23 +137,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,29 +180,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -171,24 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +203,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,31 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,115 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +394,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,24 +438,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,7 +451,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,37 +480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,138 +499,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1498,7 +1498,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>res_ping_good!$V$1:$V$200</c:f>
+              <c:f>res_ping_good!$W$1:$W$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -2179,790 +2179,14 @@
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
-                <c:xVal>
-                  <c:numRef>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="260"/>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>511</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>512</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>1023</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
                 <c:yVal>
                   <c:numRef>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="260"/>
+                      <c:pt idx="0">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
                       <c:pt idx="1">
                         <c:v>80000</c:v>
                       </c:pt>
@@ -2972,6 +2196,9 @@
                       <c:pt idx="3">
                         <c:v>320000</c:v>
                       </c:pt>
+                      <c:pt idx="4">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
                       <c:pt idx="5">
                         <c:v>556522</c:v>
                       </c:pt>
@@ -3652,6 +2879,9 @@
                       </c:pt>
                       <c:pt idx="231">
                         <c:v>290909</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="233">
                         <c:v>400000</c:v>
@@ -3738,6 +2968,627 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredCategoryTitle>
+                      <c15:cat>
+                        <c:numRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>{#N/A,4,16,32,#N/A,128,100,4,16,32,64,128,100,4,16,32,64,128,100,4,16,32,64,128,100,4,16,32,64,128,100,4,16,32,64,128,100,4,16,32,64,128,100,4,16,32,64,128,100,4,16,32,64,128,100,4,16,32,64,128,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,63,64,127,128,255,256,511,512,1,2,3,4,7,8,15,16,31,32,#N/A,64,127,128,255,256,511,512,1023,1024,1023,1024,1023,1024,1023,1024,1023,1024,1023,1024,1023,1024,1023,1024,1023,1024,1023,1024}</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                          <c:numCache>
+                            <c:formatCode>General</c:formatCode>
+                            <c:ptCount val="200"/>
+                            <c:pt idx="0">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="1">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="2">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="3">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="4">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="5">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="6">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="7">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="8">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="9">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="10">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="11">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="12">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="13">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="14">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="15">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="16">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="17">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="18">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="19">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="20">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="21">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="22">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="23">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="24">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="25">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="26">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="27">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="28">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="29">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="30">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="31">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="32">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="33">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="34">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="35">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="36">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="37">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="38">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="39">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="40">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="41">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="42">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="43">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="44">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="45">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="46">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="47">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="48">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="49">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="50">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="51">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="52">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="53">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="54">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="55">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="56">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="57">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="58">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="59">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="60">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="61">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="62">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="63">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="64">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="65">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="66">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="67">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="68">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="69">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="70">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="71">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="72">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="73">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="74">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="75">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="76">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="77">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="78">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="79">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="80">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="81">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="82">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="83">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="84">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="85">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="86">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="87">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="88">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="89">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="90">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="91">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="92">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="93">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="94">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="95">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="96">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="97">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="98">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="99">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="100">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="101">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="102">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="103">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="104">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="105">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="106">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="107">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="108">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="109">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="110">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="111">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="112">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="113">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="114">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="115">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="116">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="117">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="118">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="119">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="120">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="121">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="122">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="123">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="124">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="125">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="126">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="127">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="128">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="129">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="130">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="131">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="132">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="133">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="134">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="135">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="136">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="137">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="138">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="139">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="140">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="141">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="142">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="143">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="144">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="145">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="146">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="147">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="148">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="149">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="150">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="151">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="152">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="153">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="154">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="155">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="156">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="157">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="158">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="159">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="160">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="161">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="162">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="163">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="164">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="165">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="166">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="167">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="168">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="169">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="170">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="171">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="172">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="173">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="174">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="175">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="176">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="177">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="178">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="179">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                            <c:pt idx="180">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="181">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="182">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="183">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="184">
+                              <c:v>7</c:v>
+                            </c:pt>
+                            <c:pt idx="185">
+                              <c:v>8</c:v>
+                            </c:pt>
+                            <c:pt idx="186">
+                              <c:v>15</c:v>
+                            </c:pt>
+                            <c:pt idx="187">
+                              <c:v>16</c:v>
+                            </c:pt>
+                            <c:pt idx="188">
+                              <c:v>31</c:v>
+                            </c:pt>
+                            <c:pt idx="189">
+                              <c:v>32</c:v>
+                            </c:pt>
+                            <c:pt idx="190">
+                              <c:v>63</c:v>
+                            </c:pt>
+                            <c:pt idx="191">
+                              <c:v>64</c:v>
+                            </c:pt>
+                            <c:pt idx="192">
+                              <c:v>127</c:v>
+                            </c:pt>
+                            <c:pt idx="193">
+                              <c:v>128</c:v>
+                            </c:pt>
+                            <c:pt idx="194">
+                              <c:v>255</c:v>
+                            </c:pt>
+                            <c:pt idx="195">
+                              <c:v>256</c:v>
+                            </c:pt>
+                            <c:pt idx="196">
+                              <c:v>511</c:v>
+                            </c:pt>
+                            <c:pt idx="197">
+                              <c:v>512</c:v>
+                            </c:pt>
+                            <c:pt idx="198">
+                              <c:v>1023</c:v>
+                            </c:pt>
+                            <c:pt idx="199">
+                              <c:v>1024</c:v>
+                            </c:pt>
+                          </c:numCache>
+                        </c:numRef>
+                      </c15:cat>
+                    </c15:filteredCategoryTitle>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
@@ -6765,10 +6616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V260"/>
+  <dimension ref="A1:W260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -6780,15 +6631,19 @@
     <col min="7" max="1025" width="6.53939393939394" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="21:22">
+    <row r="1" spans="21:23">
       <c r="U1" s="2">
         <v>1</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1">
+        <f>2*W1</f>
+        <v>22222.2</v>
+      </c>
+      <c r="W1" s="2">
         <v>11111.1</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>4</v>
       </c>
@@ -6801,11 +6656,15 @@
       <c r="U2" s="2">
         <v>2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
+        <f t="shared" ref="V2:V20" si="0">2*W2</f>
+        <v>50000</v>
+      </c>
+      <c r="W2" s="2">
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>16</v>
       </c>
@@ -6824,11 +6683,15 @@
       <c r="U3" s="2">
         <v>3</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="W3" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>32</v>
       </c>
@@ -6847,11 +6710,15 @@
       <c r="U4" s="2">
         <v>4</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>57142.8</v>
+      </c>
+      <c r="W4" s="2">
         <v>28571.4</v>
       </c>
     </row>
-    <row r="5" spans="17:22">
+    <row r="5" spans="17:23">
       <c r="Q5" s="2">
         <v>2</v>
       </c>
@@ -6861,11 +6728,15 @@
       <c r="U5" s="2">
         <v>7</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+      <c r="W5" s="2">
         <v>70000</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>128</v>
       </c>
@@ -6884,11 +6755,15 @@
       <c r="U6" s="2">
         <v>8</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>145454.6</v>
+      </c>
+      <c r="W6" s="2">
         <v>72727.3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>100</v>
       </c>
@@ -6907,11 +6782,15 @@
       <c r="U7" s="2">
         <v>15</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>272728</v>
+      </c>
+      <c r="W7" s="2">
         <v>136364</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6930,11 +6809,15 @@
       <c r="U8" s="2">
         <v>16</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>290910</v>
+      </c>
+      <c r="W8" s="2">
         <v>145455</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>16</v>
       </c>
@@ -6953,11 +6836,15 @@
       <c r="U9" s="2">
         <v>31</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>387500</v>
+      </c>
+      <c r="W9" s="2">
         <v>193750</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>32</v>
       </c>
@@ -6976,11 +6863,15 @@
       <c r="U10" s="2">
         <v>32</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>376470</v>
+      </c>
+      <c r="W10" s="2">
         <v>188235</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>64</v>
       </c>
@@ -6999,11 +6890,15 @@
       <c r="U11" s="2">
         <v>63</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+      <c r="W11" s="2">
         <v>252000</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>128</v>
       </c>
@@ -7022,11 +6917,15 @@
       <c r="U12" s="2">
         <v>64</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>492308</v>
+      </c>
+      <c r="W12" s="2">
         <v>246154</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>100</v>
       </c>
@@ -7039,11 +6938,15 @@
       <c r="U13" s="2">
         <v>127</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>540426</v>
+      </c>
+      <c r="W13" s="2">
         <v>270213</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7056,11 +6959,15 @@
       <c r="U14" s="2">
         <v>128</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>556522</v>
+      </c>
+      <c r="W14" s="2">
         <v>278261</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>16</v>
       </c>
@@ -7073,11 +6980,15 @@
       <c r="U15" s="2">
         <v>255</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+      <c r="W15" s="2">
         <v>375000</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>32</v>
       </c>
@@ -7090,11 +7001,15 @@
       <c r="U16" s="2">
         <v>256</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>701370</v>
+      </c>
+      <c r="W16" s="2">
         <v>350685</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>64</v>
       </c>
@@ -7107,11 +7022,15 @@
       <c r="U17" s="2">
         <v>511</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>798438</v>
+      </c>
+      <c r="W17" s="2">
         <v>399219</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>128</v>
       </c>
@@ -7124,11 +7043,15 @@
       <c r="U18" s="2">
         <v>512</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>764180</v>
+      </c>
+      <c r="W18" s="2">
         <v>382090</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>100</v>
       </c>
@@ -7141,11 +7064,15 @@
       <c r="U19" s="2">
         <v>1023</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>805512</v>
+      </c>
+      <c r="W19" s="2">
         <v>402756</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7158,11 +7085,15 @@
       <c r="U20" s="2">
         <v>1024</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="W20" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>16</v>
       </c>
@@ -7175,11 +7106,15 @@
       <c r="U21" s="2">
         <v>1</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21">
+        <f t="shared" ref="V21:V52" si="1">2*W21</f>
+        <v>20000</v>
+      </c>
+      <c r="W21" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>32</v>
       </c>
@@ -7195,11 +7130,15 @@
       <c r="U22" s="2">
         <v>2</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>44444.4</v>
+      </c>
+      <c r="W22" s="2">
         <v>22222.2</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>64</v>
       </c>
@@ -7221,11 +7160,15 @@
       <c r="U23" s="2">
         <v>3</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>66666.6</v>
+      </c>
+      <c r="W23" s="2">
         <v>33333.3</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>128</v>
       </c>
@@ -7247,11 +7190,15 @@
       <c r="U24" s="2">
         <v>4</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="W24" s="2">
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>100</v>
       </c>
@@ -7264,11 +7211,15 @@
       <c r="U25" s="2">
         <v>7</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>155555.6</v>
+      </c>
+      <c r="W25" s="2">
         <v>77777.8</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>4</v>
       </c>
@@ -7281,11 +7232,15 @@
       <c r="U26" s="2">
         <v>8</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>114285.8</v>
+      </c>
+      <c r="W26" s="2">
         <v>57142.9</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>16</v>
       </c>
@@ -7298,11 +7253,15 @@
       <c r="U27" s="2">
         <v>15</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="W27" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>32</v>
       </c>
@@ -7315,11 +7274,15 @@
       <c r="U28" s="2">
         <v>16</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>290910</v>
+      </c>
+      <c r="W28" s="2">
         <v>145455</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>64</v>
       </c>
@@ -7332,11 +7295,15 @@
       <c r="U29" s="2">
         <v>31</v>
       </c>
-      <c r="V29" s="2">
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>387500</v>
+      </c>
+      <c r="W29" s="2">
         <v>193750</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>128</v>
       </c>
@@ -7349,11 +7316,15 @@
       <c r="U30" s="2">
         <v>32</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>376470</v>
+      </c>
+      <c r="W30" s="2">
         <v>188235</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>100</v>
       </c>
@@ -7366,11 +7337,15 @@
       <c r="U31" s="2">
         <v>63</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>525000</v>
+      </c>
+      <c r="W31" s="2">
         <v>262500</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>4</v>
       </c>
@@ -7383,11 +7358,15 @@
       <c r="U32" s="2">
         <v>64</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>426666</v>
+      </c>
+      <c r="W32" s="2">
         <v>213333</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>16</v>
       </c>
@@ -7400,11 +7379,15 @@
       <c r="U33" s="2">
         <v>127</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>635000</v>
+      </c>
+      <c r="W33" s="2">
         <v>317500</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7417,11 +7400,15 @@
       <c r="U34" s="2">
         <v>128</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>609524</v>
+      </c>
+      <c r="W34" s="2">
         <v>304762</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>64</v>
       </c>
@@ -7434,11 +7421,15 @@
       <c r="U35" s="2">
         <v>255</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>680000</v>
+      </c>
+      <c r="W35" s="2">
         <v>340000</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>128</v>
       </c>
@@ -7451,11 +7442,15 @@
       <c r="U36" s="2">
         <v>256</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>664936</v>
+      </c>
+      <c r="W36" s="2">
         <v>332468</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>100</v>
       </c>
@@ -7468,11 +7463,15 @@
       <c r="U37" s="2">
         <v>511</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>768422</v>
+      </c>
+      <c r="W37" s="2">
         <v>384211</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>4</v>
       </c>
@@ -7485,11 +7484,15 @@
       <c r="U38" s="2">
         <v>512</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>781680</v>
+      </c>
+      <c r="W38" s="2">
         <v>390840</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>16</v>
       </c>
@@ -7502,11 +7505,15 @@
       <c r="U39" s="2">
         <v>1023</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>831708</v>
+      </c>
+      <c r="W39" s="2">
         <v>415854</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>32</v>
       </c>
@@ -7519,11 +7526,15 @@
       <c r="U40" s="2">
         <v>1024</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>815936</v>
+      </c>
+      <c r="W40" s="2">
         <v>407968</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>64</v>
       </c>
@@ -7536,11 +7547,15 @@
       <c r="U41" s="2">
         <v>1</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>22222.2</v>
+      </c>
+      <c r="W41" s="2">
         <v>11111.1</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>128</v>
       </c>
@@ -7553,11 +7568,15 @@
       <c r="U42" s="2">
         <v>2</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>44444.4</v>
+      </c>
+      <c r="W42" s="2">
         <v>22222.2</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>100</v>
       </c>
@@ -7570,11 +7589,15 @@
       <c r="U43" s="2">
         <v>3</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>66666.6</v>
+      </c>
+      <c r="W43" s="2">
         <v>33333.3</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>4</v>
       </c>
@@ -7587,11 +7610,15 @@
       <c r="U44" s="2">
         <v>4</v>
       </c>
-      <c r="V44" s="2">
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="W44" s="2">
         <v>40000</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>16</v>
       </c>
@@ -7604,11 +7631,15 @@
       <c r="U45" s="2">
         <v>7</v>
       </c>
-      <c r="V45" s="2">
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>155555.6</v>
+      </c>
+      <c r="W45" s="2">
         <v>77777.8</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>32</v>
       </c>
@@ -7621,11 +7652,15 @@
       <c r="U46" s="2">
         <v>8</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>145454.6</v>
+      </c>
+      <c r="W46" s="2">
         <v>72727.3</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>64</v>
       </c>
@@ -7638,11 +7673,15 @@
       <c r="U47" s="2">
         <v>15</v>
       </c>
-      <c r="V47" s="2">
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>272728</v>
+      </c>
+      <c r="W47" s="2">
         <v>136364</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>128</v>
       </c>
@@ -7655,11 +7694,15 @@
       <c r="U48" s="2">
         <v>16</v>
       </c>
-      <c r="V48" s="2">
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>266666</v>
+      </c>
+      <c r="W48" s="2">
         <v>133333</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>100</v>
       </c>
@@ -7672,11 +7715,15 @@
       <c r="U49" s="2">
         <v>31</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>364706</v>
+      </c>
+      <c r="W49" s="2">
         <v>182353</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>4</v>
       </c>
@@ -7689,11 +7736,15 @@
       <c r="U50" s="2">
         <v>32</v>
       </c>
-      <c r="V50" s="2">
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>336842</v>
+      </c>
+      <c r="W50" s="2">
         <v>168421</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>16</v>
       </c>
@@ -7706,11 +7757,15 @@
       <c r="U51" s="2">
         <v>63</v>
       </c>
-      <c r="V51" s="2">
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>504000</v>
+      </c>
+      <c r="W51" s="2">
         <v>252000</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>32</v>
       </c>
@@ -7723,11 +7778,15 @@
       <c r="U52" s="2">
         <v>64</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>492308</v>
+      </c>
+      <c r="W52" s="2">
         <v>246154</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>64</v>
       </c>
@@ -7740,11 +7799,15 @@
       <c r="U53" s="2">
         <v>127</v>
       </c>
-      <c r="V53" s="2">
+      <c r="V53">
+        <f t="shared" ref="V53:V84" si="2">2*W53</f>
+        <v>619512</v>
+      </c>
+      <c r="W53" s="2">
         <v>309756</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>128</v>
       </c>
@@ -7757,11 +7820,15 @@
       <c r="U54" s="2">
         <v>128</v>
       </c>
-      <c r="V54" s="2">
+      <c r="V54">
+        <f t="shared" si="2"/>
+        <v>595348</v>
+      </c>
+      <c r="W54" s="2">
         <v>297674</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>100</v>
       </c>
@@ -7774,11 +7841,15 @@
       <c r="U55" s="2">
         <v>255</v>
       </c>
-      <c r="V55" s="2">
+      <c r="V55">
+        <f t="shared" si="2"/>
+        <v>728572</v>
+      </c>
+      <c r="W55" s="2">
         <v>364286</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>4</v>
       </c>
@@ -7791,11 +7862,15 @@
       <c r="U56" s="2">
         <v>256</v>
       </c>
-      <c r="V56" s="2">
+      <c r="V56">
+        <f t="shared" si="2"/>
+        <v>742028</v>
+      </c>
+      <c r="W56" s="2">
         <v>371014</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>16</v>
       </c>
@@ -7808,11 +7883,15 @@
       <c r="U57" s="2">
         <v>511</v>
       </c>
-      <c r="V57" s="2">
+      <c r="V57">
+        <f t="shared" si="2"/>
+        <v>817600</v>
+      </c>
+      <c r="W57" s="2">
         <v>408800</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>32</v>
       </c>
@@ -7825,11 +7904,15 @@
       <c r="U58" s="2">
         <v>512</v>
       </c>
-      <c r="V58" s="2">
+      <c r="V58">
+        <f t="shared" si="2"/>
+        <v>806300</v>
+      </c>
+      <c r="W58" s="2">
         <v>403150</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>64</v>
       </c>
@@ -7842,11 +7925,15 @@
       <c r="U59" s="2">
         <v>1023</v>
       </c>
-      <c r="V59" s="2">
+      <c r="V59">
+        <f t="shared" si="2"/>
+        <v>838524</v>
+      </c>
+      <c r="W59" s="2">
         <v>419262</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>128</v>
       </c>
@@ -7859,11 +7946,15 @@
       <c r="U60" s="2">
         <v>1024</v>
       </c>
-      <c r="V60" s="2">
+      <c r="V60">
+        <f t="shared" si="2"/>
+        <v>825806</v>
+      </c>
+      <c r="W60" s="2">
         <v>412903</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:23">
       <c r="A61">
         <v>1</v>
       </c>
@@ -7876,11 +7967,15 @@
       <c r="U61" s="2">
         <v>1</v>
       </c>
-      <c r="V61" s="2">
+      <c r="V61">
+        <f t="shared" si="2"/>
+        <v>18181.82</v>
+      </c>
+      <c r="W61" s="2">
         <v>9090.91</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:23">
       <c r="A62">
         <v>2</v>
       </c>
@@ -7893,11 +7988,15 @@
       <c r="U62" s="2">
         <v>2</v>
       </c>
-      <c r="V62" s="2">
+      <c r="V62">
+        <f t="shared" si="2"/>
+        <v>36363.6</v>
+      </c>
+      <c r="W62" s="2">
         <v>18181.8</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:23">
       <c r="A63">
         <v>3</v>
       </c>
@@ -7910,11 +8009,15 @@
       <c r="U63" s="2">
         <v>3</v>
       </c>
-      <c r="V63" s="2">
+      <c r="V63">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="W63" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:23">
       <c r="A64">
         <v>4</v>
       </c>
@@ -7927,11 +8030,15 @@
       <c r="U64" s="2">
         <v>4</v>
       </c>
-      <c r="V64" s="2">
+      <c r="V64">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="W64" s="2">
         <v>40000</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>7</v>
       </c>
@@ -7944,11 +8051,15 @@
       <c r="U65" s="2">
         <v>7</v>
       </c>
-      <c r="V65" s="2">
+      <c r="V65">
+        <f t="shared" si="2"/>
+        <v>127272.8</v>
+      </c>
+      <c r="W65" s="2">
         <v>63636.4</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:23">
       <c r="A66">
         <v>8</v>
       </c>
@@ -7961,11 +8072,15 @@
       <c r="U66" s="2">
         <v>8</v>
       </c>
-      <c r="V66" s="2">
+      <c r="V66">
+        <f t="shared" si="2"/>
+        <v>145454.6</v>
+      </c>
+      <c r="W66" s="2">
         <v>72727.3</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:23">
       <c r="A67">
         <v>15</v>
       </c>
@@ -7978,11 +8093,15 @@
       <c r="U67" s="2">
         <v>15</v>
       </c>
-      <c r="V67" s="2">
+      <c r="V67">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="W67" s="2">
         <v>125000</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:23">
       <c r="A68">
         <v>16</v>
       </c>
@@ -7995,11 +8114,15 @@
       <c r="U68" s="2">
         <v>16</v>
       </c>
-      <c r="V68" s="2">
+      <c r="V68">
+        <f t="shared" si="2"/>
+        <v>246154</v>
+      </c>
+      <c r="W68" s="2">
         <v>123077</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:23">
       <c r="A69">
         <v>31</v>
       </c>
@@ -8012,11 +8135,15 @@
       <c r="U69" s="2">
         <v>31</v>
       </c>
-      <c r="V69" s="2">
+      <c r="V69">
+        <f t="shared" si="2"/>
+        <v>387500</v>
+      </c>
+      <c r="W69" s="2">
         <v>193750</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>32</v>
       </c>
@@ -8029,11 +8156,15 @@
       <c r="U70" s="2">
         <v>32</v>
       </c>
-      <c r="V70" s="2">
+      <c r="V70">
+        <f t="shared" si="2"/>
+        <v>376470</v>
+      </c>
+      <c r="W70" s="2">
         <v>188235</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:23">
       <c r="A71">
         <v>63</v>
       </c>
@@ -8046,11 +8177,15 @@
       <c r="U71" s="2">
         <v>63</v>
       </c>
-      <c r="V71" s="2">
+      <c r="V71">
+        <f t="shared" si="2"/>
+        <v>547826</v>
+      </c>
+      <c r="W71" s="2">
         <v>273913</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:23">
       <c r="A72">
         <v>64</v>
       </c>
@@ -8063,11 +8198,15 @@
       <c r="U72" s="2">
         <v>64</v>
       </c>
-      <c r="V72" s="2">
+      <c r="V72">
+        <f t="shared" si="2"/>
+        <v>474074</v>
+      </c>
+      <c r="W72" s="2">
         <v>237037</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:23">
       <c r="A73">
         <v>127</v>
       </c>
@@ -8080,11 +8219,15 @@
       <c r="U73" s="2">
         <v>127</v>
       </c>
-      <c r="V73" s="2">
+      <c r="V73">
+        <f t="shared" si="2"/>
+        <v>651282</v>
+      </c>
+      <c r="W73" s="2">
         <v>325641</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>128</v>
       </c>
@@ -8097,11 +8240,15 @@
       <c r="U74" s="2">
         <v>128</v>
       </c>
-      <c r="V74" s="2">
+      <c r="V74">
+        <f t="shared" si="2"/>
+        <v>595348</v>
+      </c>
+      <c r="W74" s="2">
         <v>297674</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:23">
       <c r="A75">
         <v>255</v>
       </c>
@@ -8114,11 +8261,15 @@
       <c r="U75" s="2">
         <v>255</v>
       </c>
-      <c r="V75" s="2">
+      <c r="V75">
+        <f t="shared" si="2"/>
+        <v>809524</v>
+      </c>
+      <c r="W75" s="2">
         <v>404762</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:23">
       <c r="A76">
         <v>256</v>
       </c>
@@ -8131,11 +8282,15 @@
       <c r="U76" s="2">
         <v>256</v>
       </c>
-      <c r="V76" s="2">
+      <c r="V76">
+        <f t="shared" si="2"/>
+        <v>691892</v>
+      </c>
+      <c r="W76" s="2">
         <v>345946</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:23">
       <c r="A77">
         <v>511</v>
       </c>
@@ -8148,11 +8303,15 @@
       <c r="U77" s="2">
         <v>511</v>
       </c>
-      <c r="V77" s="2">
+      <c r="V77">
+        <f t="shared" si="2"/>
+        <v>798438</v>
+      </c>
+      <c r="W77" s="2">
         <v>399219</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:23">
       <c r="A78">
         <v>512</v>
       </c>
@@ -8165,11 +8324,15 @@
       <c r="U78" s="2">
         <v>512</v>
       </c>
-      <c r="V78" s="2">
+      <c r="V78">
+        <f t="shared" si="2"/>
+        <v>819200</v>
+      </c>
+      <c r="W78" s="2">
         <v>409600</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:23">
       <c r="A79">
         <v>1</v>
       </c>
@@ -8182,11 +8345,15 @@
       <c r="U79" s="2">
         <v>1023</v>
       </c>
-      <c r="V79" s="2">
+      <c r="V79">
+        <f t="shared" si="2"/>
+        <v>881896</v>
+      </c>
+      <c r="W79" s="2">
         <v>440948</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:23">
       <c r="A80">
         <v>2</v>
       </c>
@@ -8199,11 +8366,15 @@
       <c r="U80" s="2">
         <v>1024</v>
       </c>
-      <c r="V80" s="2">
+      <c r="V80">
+        <f t="shared" si="2"/>
+        <v>835918</v>
+      </c>
+      <c r="W80" s="2">
         <v>417959</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:23">
       <c r="A81">
         <v>3</v>
       </c>
@@ -8216,11 +8387,15 @@
       <c r="U81" s="2">
         <v>1</v>
       </c>
-      <c r="V81" s="2">
+      <c r="V81">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="W81" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:23">
       <c r="A82">
         <v>4</v>
       </c>
@@ -8233,11 +8408,15 @@
       <c r="U82" s="2">
         <v>2</v>
       </c>
-      <c r="V82" s="2">
+      <c r="V82">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="W82" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:23">
       <c r="A83">
         <v>7</v>
       </c>
@@ -8250,11 +8429,15 @@
       <c r="U83" s="2">
         <v>3</v>
       </c>
-      <c r="V83" s="2">
+      <c r="V83">
+        <f t="shared" si="2"/>
+        <v>66666.6</v>
+      </c>
+      <c r="W83" s="2">
         <v>33333.3</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:23">
       <c r="A84">
         <v>8</v>
       </c>
@@ -8267,11 +8450,15 @@
       <c r="U84" s="2">
         <v>4</v>
       </c>
-      <c r="V84" s="2">
+      <c r="V84">
+        <f t="shared" si="2"/>
+        <v>88888.8</v>
+      </c>
+      <c r="W84" s="2">
         <v>44444.4</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:23">
       <c r="A85">
         <v>15</v>
       </c>
@@ -8284,11 +8471,15 @@
       <c r="U85" s="2">
         <v>7</v>
       </c>
-      <c r="V85" s="2">
+      <c r="V85">
+        <f t="shared" ref="V85:V103" si="3">2*W85</f>
+        <v>140000</v>
+      </c>
+      <c r="W85" s="2">
         <v>70000</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:23">
       <c r="A86">
         <v>16</v>
       </c>
@@ -8301,11 +8492,15 @@
       <c r="U86" s="2">
         <v>8</v>
       </c>
-      <c r="V86" s="2">
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>145454.6</v>
+      </c>
+      <c r="W86" s="2">
         <v>72727.3</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:23">
       <c r="A87">
         <v>31</v>
       </c>
@@ -8318,11 +8513,15 @@
       <c r="U87" s="2">
         <v>15</v>
       </c>
-      <c r="V87" s="2">
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>300000</v>
+      </c>
+      <c r="W87" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:23">
       <c r="A88">
         <v>32</v>
       </c>
@@ -8335,11 +8534,15 @@
       <c r="U88" s="2">
         <v>16</v>
       </c>
-      <c r="V88" s="2">
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>266666</v>
+      </c>
+      <c r="W88" s="2">
         <v>133333</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:23">
       <c r="A89">
         <v>63</v>
       </c>
@@ -8352,11 +8555,15 @@
       <c r="U89" s="2">
         <v>31</v>
       </c>
-      <c r="V89" s="2">
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>387500</v>
+      </c>
+      <c r="W89" s="2">
         <v>193750</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:23">
       <c r="A90">
         <v>64</v>
       </c>
@@ -8369,11 +8576,15 @@
       <c r="U90" s="2">
         <v>32</v>
       </c>
-      <c r="V90" s="2">
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>533334</v>
+      </c>
+      <c r="W90" s="2">
         <v>266667</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:23">
       <c r="A91">
         <v>127</v>
       </c>
@@ -8386,11 +8597,15 @@
       <c r="U91" s="2">
         <v>63</v>
       </c>
-      <c r="V91" s="2">
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>525000</v>
+      </c>
+      <c r="W91" s="2">
         <v>262500</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:23">
       <c r="A92">
         <v>128</v>
       </c>
@@ -8403,11 +8618,15 @@
       <c r="U92" s="2">
         <v>64</v>
       </c>
-      <c r="V92" s="2">
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="W92" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:23">
       <c r="A93">
         <v>255</v>
       </c>
@@ -8420,11 +8639,15 @@
       <c r="U93" s="2">
         <v>127</v>
       </c>
-      <c r="V93" s="2">
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>635000</v>
+      </c>
+      <c r="W93" s="2">
         <v>317500</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:23">
       <c r="A94">
         <v>256</v>
       </c>
@@ -8437,11 +8660,15 @@
       <c r="U94" s="2">
         <v>128</v>
       </c>
-      <c r="V94" s="2">
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>609524</v>
+      </c>
+      <c r="W94" s="2">
         <v>304762</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:23">
       <c r="A95">
         <v>511</v>
       </c>
@@ -8454,11 +8681,15 @@
       <c r="U95" s="2">
         <v>255</v>
       </c>
-      <c r="V95" s="2">
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>728572</v>
+      </c>
+      <c r="W95" s="2">
         <v>364286</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:23">
       <c r="A96">
         <v>512</v>
       </c>
@@ -8471,11 +8702,15 @@
       <c r="U96" s="2">
         <v>256</v>
       </c>
-      <c r="V96" s="2">
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>711112</v>
+      </c>
+      <c r="W96" s="2">
         <v>355556</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:23">
       <c r="A97">
         <v>1</v>
       </c>
@@ -8488,11 +8723,15 @@
       <c r="U97" s="2">
         <v>511</v>
       </c>
-      <c r="V97" s="2">
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>817600</v>
+      </c>
+      <c r="W97" s="2">
         <v>408800</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:23">
       <c r="A98">
         <v>2</v>
       </c>
@@ -8505,11 +8744,15 @@
       <c r="U98" s="2">
         <v>512</v>
       </c>
-      <c r="V98" s="2">
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>758518</v>
+      </c>
+      <c r="W98" s="2">
         <v>379259</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:23">
       <c r="A99">
         <v>3</v>
       </c>
@@ -8522,11 +8765,15 @@
       <c r="U99" s="2">
         <v>1023</v>
       </c>
-      <c r="V99" s="2">
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>808696</v>
+      </c>
+      <c r="W99" s="2">
         <v>404348</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:23">
       <c r="A100">
         <v>4</v>
       </c>
@@ -8539,11 +8786,15 @@
       <c r="U100" s="2">
         <v>1024</v>
       </c>
-      <c r="V100" s="2">
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>819200</v>
+      </c>
+      <c r="W100" s="2">
         <v>409600</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:23">
       <c r="A101">
         <v>7</v>
       </c>
@@ -8556,11 +8807,15 @@
       <c r="U101" s="2">
         <v>1</v>
       </c>
-      <c r="V101" s="2">
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>22222.2</v>
+      </c>
+      <c r="W101" s="2">
         <v>11111.1</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:23">
       <c r="A102">
         <v>8</v>
       </c>
@@ -8573,11 +8828,15 @@
       <c r="U102" s="2">
         <v>2</v>
       </c>
-      <c r="V102" s="2">
+      <c r="V102">
+        <f t="shared" si="3"/>
+        <v>23529.4</v>
+      </c>
+      <c r="W102" s="2">
         <v>11764.7</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:23">
       <c r="A103">
         <v>15</v>
       </c>
@@ -8590,11 +8849,15 @@
       <c r="U103" s="2">
         <v>3</v>
       </c>
-      <c r="V103" s="2">
+      <c r="V103">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="W103" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:23">
       <c r="A104">
         <v>16</v>
       </c>
@@ -8607,11 +8870,15 @@
       <c r="U104" s="2">
         <v>4</v>
       </c>
-      <c r="V104" s="2">
+      <c r="V104">
+        <f t="shared" ref="V104:V135" si="4">2*W104</f>
+        <v>88888.8</v>
+      </c>
+      <c r="W104" s="2">
         <v>44444.4</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:23">
       <c r="A105">
         <v>31</v>
       </c>
@@ -8624,11 +8891,15 @@
       <c r="U105" s="2">
         <v>7</v>
       </c>
-      <c r="V105" s="2">
+      <c r="V105">
+        <f t="shared" si="4"/>
+        <v>127272.8</v>
+      </c>
+      <c r="W105" s="2">
         <v>63636.4</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:23">
       <c r="A106">
         <v>32</v>
       </c>
@@ -8641,11 +8912,15 @@
       <c r="U106" s="2">
         <v>8</v>
       </c>
-      <c r="V106" s="2">
+      <c r="V106">
+        <f t="shared" si="4"/>
+        <v>145454.6</v>
+      </c>
+      <c r="W106" s="2">
         <v>72727.3</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:23">
       <c r="A107">
         <v>63</v>
       </c>
@@ -8658,11 +8933,15 @@
       <c r="U107" s="2">
         <v>15</v>
       </c>
-      <c r="V107" s="2">
+      <c r="V107">
+        <f t="shared" si="4"/>
+        <v>214286</v>
+      </c>
+      <c r="W107" s="2">
         <v>107143</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:23">
       <c r="A108">
         <v>64</v>
       </c>
@@ -8675,11 +8954,15 @@
       <c r="U108" s="2">
         <v>16</v>
       </c>
-      <c r="V108" s="2">
+      <c r="V108">
+        <f t="shared" si="4"/>
+        <v>246154</v>
+      </c>
+      <c r="W108" s="2">
         <v>123077</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:23">
       <c r="A109">
         <v>127</v>
       </c>
@@ -8692,11 +8975,15 @@
       <c r="U109" s="2">
         <v>31</v>
       </c>
-      <c r="V109" s="2">
+      <c r="V109">
+        <f t="shared" si="4"/>
+        <v>364706</v>
+      </c>
+      <c r="W109" s="2">
         <v>182353</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:23">
       <c r="A110">
         <v>128</v>
       </c>
@@ -8709,11 +8996,15 @@
       <c r="U110" s="2">
         <v>32</v>
       </c>
-      <c r="V110" s="2">
+      <c r="V110">
+        <f t="shared" si="4"/>
+        <v>266666</v>
+      </c>
+      <c r="W110" s="2">
         <v>133333</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:23">
       <c r="A111">
         <v>255</v>
       </c>
@@ -8726,11 +9017,15 @@
       <c r="U111" s="2">
         <v>63</v>
       </c>
-      <c r="V111" s="2">
+      <c r="V111">
+        <f t="shared" si="4"/>
+        <v>547826</v>
+      </c>
+      <c r="W111" s="2">
         <v>273913</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:23">
       <c r="A112">
         <v>256</v>
       </c>
@@ -8743,11 +9038,15 @@
       <c r="U112" s="2">
         <v>64</v>
       </c>
-      <c r="V112" s="2">
+      <c r="V112">
+        <f t="shared" si="4"/>
+        <v>412904</v>
+      </c>
+      <c r="W112" s="2">
         <v>206452</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:23">
       <c r="A113">
         <v>511</v>
       </c>
@@ -8760,11 +9059,15 @@
       <c r="U113" s="2">
         <v>127</v>
       </c>
-      <c r="V113" s="2">
+      <c r="V113">
+        <f t="shared" si="4"/>
+        <v>686486</v>
+      </c>
+      <c r="W113" s="2">
         <v>343243</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:23">
       <c r="A114">
         <v>512</v>
       </c>
@@ -8777,11 +9080,15 @@
       <c r="U114" s="2">
         <v>128</v>
       </c>
-      <c r="V114" s="2">
+      <c r="V114">
+        <f t="shared" si="4"/>
+        <v>556522</v>
+      </c>
+      <c r="W114" s="2">
         <v>278261</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:23">
       <c r="A115">
         <v>1</v>
       </c>
@@ -8794,11 +9101,15 @@
       <c r="U115" s="2">
         <v>255</v>
       </c>
-      <c r="V115" s="2">
+      <c r="V115">
+        <f t="shared" si="4"/>
+        <v>784616</v>
+      </c>
+      <c r="W115" s="2">
         <v>392308</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:23">
       <c r="A116">
         <v>2</v>
       </c>
@@ -8811,11 +9122,15 @@
       <c r="U116" s="2">
         <v>256</v>
       </c>
-      <c r="V116" s="2">
+      <c r="V116">
+        <f t="shared" si="4"/>
+        <v>711112</v>
+      </c>
+      <c r="W116" s="2">
         <v>355556</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:23">
       <c r="A117">
         <v>3</v>
       </c>
@@ -8828,11 +9143,15 @@
       <c r="U117" s="2">
         <v>511</v>
       </c>
-      <c r="V117" s="2">
+      <c r="V117">
+        <f t="shared" si="4"/>
+        <v>774242</v>
+      </c>
+      <c r="W117" s="2">
         <v>387121</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:23">
       <c r="A118">
         <v>4</v>
       </c>
@@ -8845,11 +9164,15 @@
       <c r="U118" s="2">
         <v>512</v>
       </c>
-      <c r="V118" s="2">
+      <c r="V118">
+        <f t="shared" si="4"/>
+        <v>832520</v>
+      </c>
+      <c r="W118" s="2">
         <v>416260</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:23">
       <c r="A119">
         <v>7</v>
       </c>
@@ -8862,11 +9185,15 @@
       <c r="U119" s="2">
         <v>1023</v>
       </c>
-      <c r="V119" s="2">
+      <c r="V119">
+        <f t="shared" si="4"/>
+        <v>835102</v>
+      </c>
+      <c r="W119" s="2">
         <v>417551</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:23">
       <c r="A120">
         <v>8</v>
       </c>
@@ -8879,11 +9206,15 @@
       <c r="U120" s="2">
         <v>1024</v>
       </c>
-      <c r="V120" s="2">
+      <c r="V120">
+        <f t="shared" si="4"/>
+        <v>832520</v>
+      </c>
+      <c r="W120" s="2">
         <v>416260</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:23">
       <c r="A121">
         <v>15</v>
       </c>
@@ -8896,11 +9227,15 @@
       <c r="U121" s="2">
         <v>1</v>
       </c>
-      <c r="V121" s="2">
+      <c r="V121">
+        <f t="shared" si="4"/>
+        <v>22222.2</v>
+      </c>
+      <c r="W121" s="2">
         <v>11111.1</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:23">
       <c r="A122">
         <v>16</v>
       </c>
@@ -8913,11 +9248,15 @@
       <c r="U122" s="2">
         <v>2</v>
       </c>
-      <c r="V122" s="2">
+      <c r="V122">
+        <f t="shared" si="4"/>
+        <v>36363.6</v>
+      </c>
+      <c r="W122" s="2">
         <v>18181.8</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:23">
       <c r="A123">
         <v>31</v>
       </c>
@@ -8930,11 +9269,15 @@
       <c r="U123" s="2">
         <v>3</v>
       </c>
-      <c r="V123" s="2">
+      <c r="V123">
+        <f t="shared" si="4"/>
+        <v>66666.6</v>
+      </c>
+      <c r="W123" s="2">
         <v>33333.3</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:23">
       <c r="A124">
         <v>32</v>
       </c>
@@ -8947,11 +9290,15 @@
       <c r="U124" s="2">
         <v>4</v>
       </c>
-      <c r="V124" s="2">
+      <c r="V124">
+        <f t="shared" si="4"/>
+        <v>80000</v>
+      </c>
+      <c r="W124" s="2">
         <v>40000</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:23">
       <c r="A125">
         <v>63</v>
       </c>
@@ -8964,11 +9311,15 @@
       <c r="U125" s="2">
         <v>7</v>
       </c>
-      <c r="V125" s="2">
+      <c r="V125">
+        <f t="shared" si="4"/>
+        <v>140000</v>
+      </c>
+      <c r="W125" s="2">
         <v>70000</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:23">
       <c r="A126">
         <v>64</v>
       </c>
@@ -8981,11 +9332,15 @@
       <c r="U126" s="2">
         <v>8</v>
       </c>
-      <c r="V126" s="2">
+      <c r="V126">
+        <f t="shared" si="4"/>
+        <v>160000</v>
+      </c>
+      <c r="W126" s="2">
         <v>80000</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:23">
       <c r="A127">
         <v>127</v>
       </c>
@@ -8998,11 +9353,15 @@
       <c r="U127" s="2">
         <v>15</v>
       </c>
-      <c r="V127" s="2">
+      <c r="V127">
+        <f t="shared" si="4"/>
+        <v>157894.8</v>
+      </c>
+      <c r="W127" s="2">
         <v>78947.4</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:23">
       <c r="A128">
         <v>128</v>
       </c>
@@ -9015,11 +9374,15 @@
       <c r="U128" s="2">
         <v>16</v>
       </c>
-      <c r="V128" s="2">
+      <c r="V128">
+        <f t="shared" si="4"/>
+        <v>266666</v>
+      </c>
+      <c r="W128" s="2">
         <v>133333</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:23">
       <c r="A129">
         <v>255</v>
       </c>
@@ -9032,11 +9395,15 @@
       <c r="U129" s="2">
         <v>31</v>
       </c>
-      <c r="V129" s="2">
+      <c r="V129">
+        <f t="shared" si="4"/>
+        <v>326316</v>
+      </c>
+      <c r="W129" s="2">
         <v>163158</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:23">
       <c r="A130">
         <v>256</v>
       </c>
@@ -9049,11 +9416,15 @@
       <c r="U130" s="2">
         <v>32</v>
       </c>
-      <c r="V130" s="2">
+      <c r="V130">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
+      <c r="W130" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:23">
       <c r="A131">
         <v>511</v>
       </c>
@@ -9066,11 +9437,15 @@
       <c r="U131" s="2">
         <v>63</v>
       </c>
-      <c r="V131" s="2">
+      <c r="V131">
+        <f t="shared" si="4"/>
+        <v>504000</v>
+      </c>
+      <c r="W131" s="2">
         <v>252000</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:23">
       <c r="A132">
         <v>512</v>
       </c>
@@ -9083,11 +9458,15 @@
       <c r="U132" s="2">
         <v>64</v>
       </c>
-      <c r="V132" s="2">
+      <c r="V132">
+        <f t="shared" si="4"/>
+        <v>474074</v>
+      </c>
+      <c r="W132" s="2">
         <v>237037</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:23">
       <c r="A133">
         <v>1</v>
       </c>
@@ -9100,11 +9479,15 @@
       <c r="U133" s="2">
         <v>127</v>
       </c>
-      <c r="V133" s="2">
+      <c r="V133">
+        <f t="shared" si="4"/>
+        <v>619512</v>
+      </c>
+      <c r="W133" s="2">
         <v>309756</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:23">
       <c r="A134">
         <v>2</v>
       </c>
@@ -9117,11 +9500,15 @@
       <c r="U134" s="2">
         <v>128</v>
       </c>
-      <c r="V134" s="2">
+      <c r="V134">
+        <f t="shared" si="4"/>
+        <v>544680</v>
+      </c>
+      <c r="W134" s="2">
         <v>272340</v>
       </c>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:23">
       <c r="A135">
         <v>3</v>
       </c>
@@ -9134,11 +9521,15 @@
       <c r="U135" s="2">
         <v>255</v>
       </c>
-      <c r="V135" s="2">
+      <c r="V135">
+        <f t="shared" si="4"/>
+        <v>784616</v>
+      </c>
+      <c r="W135" s="2">
         <v>392308</v>
       </c>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:23">
       <c r="A136">
         <v>4</v>
       </c>
@@ -9151,11 +9542,15 @@
       <c r="U136" s="2">
         <v>256</v>
       </c>
-      <c r="V136" s="2">
+      <c r="V136">
+        <f t="shared" ref="V136:V167" si="5">2*W136</f>
+        <v>624390</v>
+      </c>
+      <c r="W136" s="2">
         <v>312195</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:23">
       <c r="A137">
         <v>7</v>
       </c>
@@ -9168,11 +9563,15 @@
       <c r="U137" s="2">
         <v>511</v>
       </c>
-      <c r="V137" s="2">
+      <c r="V137">
+        <f t="shared" si="5"/>
+        <v>817600</v>
+      </c>
+      <c r="W137" s="2">
         <v>408800</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:23">
       <c r="A138">
         <v>8</v>
       </c>
@@ -9185,11 +9584,15 @@
       <c r="U138" s="2">
         <v>512</v>
       </c>
-      <c r="V138" s="2">
+      <c r="V138">
+        <f t="shared" si="5"/>
+        <v>736690</v>
+      </c>
+      <c r="W138" s="2">
         <v>368345</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:23">
       <c r="A139">
         <v>15</v>
       </c>
@@ -9202,11 +9605,15 @@
       <c r="U139" s="2">
         <v>1023</v>
       </c>
-      <c r="V139" s="2">
+      <c r="V139">
+        <f t="shared" si="5"/>
+        <v>783908</v>
+      </c>
+      <c r="W139" s="2">
         <v>391954</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:23">
       <c r="A140">
         <v>16</v>
       </c>
@@ -9219,11 +9626,15 @@
       <c r="U140" s="2">
         <v>1024</v>
       </c>
-      <c r="V140" s="2">
+      <c r="V140">
+        <f t="shared" si="5"/>
+        <v>806300</v>
+      </c>
+      <c r="W140" s="2">
         <v>403150</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:23">
       <c r="A141">
         <v>31</v>
       </c>
@@ -9236,11 +9647,15 @@
       <c r="U141" s="2">
         <v>1</v>
       </c>
-      <c r="V141" s="2">
+      <c r="V141">
+        <f t="shared" si="5"/>
+        <v>25000</v>
+      </c>
+      <c r="W141" s="2">
         <v>12500</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:23">
       <c r="A142">
         <v>32</v>
       </c>
@@ -9253,11 +9668,15 @@
       <c r="U142" s="2">
         <v>2</v>
       </c>
-      <c r="V142" s="2">
+      <c r="V142">
+        <f t="shared" si="5"/>
+        <v>40000</v>
+      </c>
+      <c r="W142" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:23">
       <c r="A143">
         <v>63</v>
       </c>
@@ -9270,11 +9689,15 @@
       <c r="U143" s="2">
         <v>3</v>
       </c>
-      <c r="V143" s="2">
+      <c r="V143">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="W143" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:23">
       <c r="A144">
         <v>64</v>
       </c>
@@ -9287,11 +9710,15 @@
       <c r="U144" s="2">
         <v>4</v>
       </c>
-      <c r="V144" s="2">
+      <c r="V144">
+        <f t="shared" si="5"/>
+        <v>72727.2</v>
+      </c>
+      <c r="W144" s="2">
         <v>36363.6</v>
       </c>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:23">
       <c r="A145">
         <v>127</v>
       </c>
@@ -9304,11 +9731,15 @@
       <c r="U145" s="2">
         <v>7</v>
       </c>
-      <c r="V145" s="2">
+      <c r="V145">
+        <f t="shared" si="5"/>
+        <v>140000</v>
+      </c>
+      <c r="W145" s="2">
         <v>70000</v>
       </c>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:23">
       <c r="A146">
         <v>128</v>
       </c>
@@ -9321,11 +9752,15 @@
       <c r="U146" s="2">
         <v>8</v>
       </c>
-      <c r="V146" s="2">
+      <c r="V146">
+        <f t="shared" si="5"/>
+        <v>106666.6</v>
+      </c>
+      <c r="W146" s="2">
         <v>53333.3</v>
       </c>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:23">
       <c r="A147">
         <v>255</v>
       </c>
@@ -9338,11 +9773,15 @@
       <c r="U147" s="2">
         <v>15</v>
       </c>
-      <c r="V147" s="2">
+      <c r="V147">
+        <f t="shared" si="5"/>
+        <v>250000</v>
+      </c>
+      <c r="W147" s="2">
         <v>125000</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:23">
       <c r="A148">
         <v>256</v>
       </c>
@@ -9355,11 +9794,15 @@
       <c r="U148" s="2">
         <v>16</v>
       </c>
-      <c r="V148" s="2">
+      <c r="V148">
+        <f t="shared" si="5"/>
+        <v>320000</v>
+      </c>
+      <c r="W148" s="2">
         <v>160000</v>
       </c>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:23">
       <c r="A149">
         <v>511</v>
       </c>
@@ -9372,11 +9815,15 @@
       <c r="U149" s="2">
         <v>31</v>
       </c>
-      <c r="V149" s="2">
+      <c r="V149">
+        <f t="shared" si="5"/>
+        <v>364706</v>
+      </c>
+      <c r="W149" s="2">
         <v>182353</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:23">
       <c r="A150">
         <v>512</v>
       </c>
@@ -9389,11 +9836,15 @@
       <c r="U150" s="2">
         <v>32</v>
       </c>
-      <c r="V150" s="2">
+      <c r="V150">
+        <f t="shared" si="5"/>
+        <v>376470</v>
+      </c>
+      <c r="W150" s="2">
         <v>188235</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:23">
       <c r="A151">
         <v>1</v>
       </c>
@@ -9406,11 +9857,15 @@
       <c r="U151" s="2">
         <v>63</v>
       </c>
-      <c r="V151" s="2">
+      <c r="V151">
+        <f t="shared" si="5"/>
+        <v>504000</v>
+      </c>
+      <c r="W151" s="2">
         <v>252000</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:23">
       <c r="A152">
         <v>2</v>
       </c>
@@ -9423,11 +9878,15 @@
       <c r="U152" s="2">
         <v>64</v>
       </c>
-      <c r="V152" s="2">
+      <c r="V152">
+        <f t="shared" si="5"/>
+        <v>492308</v>
+      </c>
+      <c r="W152" s="2">
         <v>246154</v>
       </c>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:23">
       <c r="A153">
         <v>3</v>
       </c>
@@ -9440,11 +9899,15 @@
       <c r="U153" s="2">
         <v>127</v>
       </c>
-      <c r="V153" s="2">
+      <c r="V153">
+        <f t="shared" si="5"/>
+        <v>635000</v>
+      </c>
+      <c r="W153" s="2">
         <v>317500</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:23">
       <c r="A154">
         <v>4</v>
       </c>
@@ -9457,11 +9920,15 @@
       <c r="U154" s="2">
         <v>128</v>
       </c>
-      <c r="V154" s="2">
+      <c r="V154">
+        <f t="shared" si="5"/>
+        <v>609524</v>
+      </c>
+      <c r="W154" s="2">
         <v>304762</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:23">
       <c r="A155">
         <v>7</v>
       </c>
@@ -9474,11 +9941,15 @@
       <c r="U155" s="2">
         <v>255</v>
       </c>
-      <c r="V155" s="2">
+      <c r="V155">
+        <f t="shared" si="5"/>
+        <v>750000</v>
+      </c>
+      <c r="W155" s="2">
         <v>375000</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:23">
       <c r="A156">
         <v>8</v>
       </c>
@@ -9491,11 +9962,15 @@
       <c r="U156" s="2">
         <v>256</v>
       </c>
-      <c r="V156" s="2">
+      <c r="V156">
+        <f t="shared" si="5"/>
+        <v>711112</v>
+      </c>
+      <c r="W156" s="2">
         <v>355556</v>
       </c>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:23">
       <c r="A157">
         <v>15</v>
       </c>
@@ -9508,11 +9983,15 @@
       <c r="U157" s="2">
         <v>511</v>
       </c>
-      <c r="V157" s="2">
+      <c r="V157">
+        <f t="shared" si="5"/>
+        <v>762686</v>
+      </c>
+      <c r="W157" s="2">
         <v>381343</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:23">
       <c r="A158">
         <v>16</v>
       </c>
@@ -9525,11 +10004,15 @@
       <c r="U158" s="2">
         <v>512</v>
       </c>
-      <c r="V158" s="2">
+      <c r="V158">
+        <f t="shared" si="5"/>
+        <v>769924</v>
+      </c>
+      <c r="W158" s="2">
         <v>384962</v>
       </c>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:23">
       <c r="A159">
         <v>31</v>
       </c>
@@ -9542,11 +10025,15 @@
       <c r="U159" s="2">
         <v>1023</v>
       </c>
-      <c r="V159" s="2">
+      <c r="V159">
+        <f t="shared" si="5"/>
+        <v>845454</v>
+      </c>
+      <c r="W159" s="2">
         <v>422727</v>
       </c>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:23">
       <c r="A160">
         <v>32</v>
       </c>
@@ -9559,11 +10046,15 @@
       <c r="U160" s="2">
         <v>1024</v>
       </c>
-      <c r="V160" s="2">
+      <c r="V160">
+        <f t="shared" si="5"/>
+        <v>825806</v>
+      </c>
+      <c r="W160" s="2">
         <v>412903</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:23">
       <c r="A161">
         <v>63</v>
       </c>
@@ -9576,11 +10067,15 @@
       <c r="U161" s="2">
         <v>1</v>
       </c>
-      <c r="V161" s="2">
+      <c r="V161">
+        <f t="shared" si="5"/>
+        <v>22222.2</v>
+      </c>
+      <c r="W161" s="2">
         <v>11111.1</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:23">
       <c r="A162">
         <v>64</v>
       </c>
@@ -9593,11 +10088,15 @@
       <c r="U162" s="2">
         <v>2</v>
       </c>
-      <c r="V162" s="2">
+      <c r="V162">
+        <f t="shared" si="5"/>
+        <v>40000</v>
+      </c>
+      <c r="W162" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:23">
       <c r="A163">
         <v>127</v>
       </c>
@@ -9610,11 +10109,15 @@
       <c r="U163" s="2">
         <v>3</v>
       </c>
-      <c r="V163" s="2">
+      <c r="V163">
+        <f t="shared" si="5"/>
+        <v>54545.4</v>
+      </c>
+      <c r="W163" s="2">
         <v>27272.7</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:23">
       <c r="A164">
         <v>128</v>
       </c>
@@ -9627,11 +10130,15 @@
       <c r="U164" s="2">
         <v>4</v>
       </c>
-      <c r="V164" s="2">
+      <c r="V164">
+        <f t="shared" si="5"/>
+        <v>72727.2</v>
+      </c>
+      <c r="W164" s="2">
         <v>36363.6</v>
       </c>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:23">
       <c r="A165">
         <v>255</v>
       </c>
@@ -9644,11 +10151,15 @@
       <c r="U165" s="2">
         <v>7</v>
       </c>
-      <c r="V165" s="2">
+      <c r="V165">
+        <f t="shared" si="5"/>
+        <v>140000</v>
+      </c>
+      <c r="W165" s="2">
         <v>70000</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:23">
       <c r="A166">
         <v>256</v>
       </c>
@@ -9661,11 +10172,15 @@
       <c r="U166" s="2">
         <v>8</v>
       </c>
-      <c r="V166" s="2">
+      <c r="V166">
+        <f t="shared" si="5"/>
+        <v>145454.6</v>
+      </c>
+      <c r="W166" s="2">
         <v>72727.3</v>
       </c>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:23">
       <c r="A167">
         <v>511</v>
       </c>
@@ -9678,11 +10193,15 @@
       <c r="U167" s="2">
         <v>15</v>
       </c>
-      <c r="V167" s="2">
+      <c r="V167">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="W167" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:23">
       <c r="A168">
         <v>512</v>
       </c>
@@ -9695,11 +10214,15 @@
       <c r="U168" s="2">
         <v>16</v>
       </c>
-      <c r="V168" s="2">
+      <c r="V168">
+        <f t="shared" ref="V168:V199" si="6">2*W168</f>
+        <v>266666</v>
+      </c>
+      <c r="W168" s="2">
         <v>133333</v>
       </c>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:23">
       <c r="A169">
         <v>1</v>
       </c>
@@ -9712,11 +10235,15 @@
       <c r="U169" s="2">
         <v>31</v>
       </c>
-      <c r="V169" s="2">
+      <c r="V169">
+        <f t="shared" si="6"/>
+        <v>387500</v>
+      </c>
+      <c r="W169" s="2">
         <v>193750</v>
       </c>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:23">
       <c r="A170">
         <v>2</v>
       </c>
@@ -9729,11 +10256,15 @@
       <c r="U170" s="2">
         <v>32</v>
       </c>
-      <c r="V170" s="2">
+      <c r="V170">
+        <f t="shared" si="6"/>
+        <v>400000</v>
+      </c>
+      <c r="W170" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:23">
       <c r="A171">
         <v>3</v>
       </c>
@@ -9746,11 +10277,15 @@
       <c r="U171" s="2">
         <v>63</v>
       </c>
-      <c r="V171" s="2">
+      <c r="V171">
+        <f t="shared" si="6"/>
+        <v>525000</v>
+      </c>
+      <c r="W171" s="2">
         <v>262500</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:23">
       <c r="A172">
         <v>4</v>
       </c>
@@ -9763,11 +10298,15 @@
       <c r="U172" s="2">
         <v>64</v>
       </c>
-      <c r="V172" s="2">
+      <c r="V172">
+        <f t="shared" si="6"/>
+        <v>474074</v>
+      </c>
+      <c r="W172" s="2">
         <v>237037</v>
       </c>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:23">
       <c r="A173">
         <v>7</v>
       </c>
@@ -9780,11 +10319,15 @@
       <c r="U173" s="2">
         <v>127</v>
       </c>
-      <c r="V173" s="2">
+      <c r="V173">
+        <f t="shared" si="6"/>
+        <v>604762</v>
+      </c>
+      <c r="W173" s="2">
         <v>302381</v>
       </c>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:23">
       <c r="A174">
         <v>8</v>
       </c>
@@ -9797,11 +10340,15 @@
       <c r="U174" s="2">
         <v>128</v>
       </c>
-      <c r="V174" s="2">
+      <c r="V174">
+        <f t="shared" si="6"/>
+        <v>522448</v>
+      </c>
+      <c r="W174" s="2">
         <v>261224</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:23">
       <c r="A175">
         <v>15</v>
       </c>
@@ -9814,11 +10361,15 @@
       <c r="U175" s="2">
         <v>255</v>
       </c>
-      <c r="V175" s="2">
+      <c r="V175">
+        <f t="shared" si="6"/>
+        <v>708334</v>
+      </c>
+      <c r="W175" s="2">
         <v>354167</v>
       </c>
     </row>
-    <row r="176" spans="1:22">
+    <row r="176" spans="1:23">
       <c r="A176">
         <v>16</v>
       </c>
@@ -9831,11 +10382,15 @@
       <c r="U176" s="2">
         <v>256</v>
       </c>
-      <c r="V176" s="2">
+      <c r="V176">
+        <f t="shared" si="6"/>
+        <v>640000</v>
+      </c>
+      <c r="W176" s="2">
         <v>320000</v>
       </c>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:23">
       <c r="A177">
         <v>31</v>
       </c>
@@ -9848,11 +10403,15 @@
       <c r="U177" s="2">
         <v>511</v>
       </c>
-      <c r="V177" s="2">
+      <c r="V177">
+        <f t="shared" si="6"/>
+        <v>873504</v>
+      </c>
+      <c r="W177" s="2">
         <v>436752</v>
       </c>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:23">
       <c r="A178">
         <v>32</v>
       </c>
@@ -9865,11 +10424,15 @@
       <c r="U178" s="2">
         <v>512</v>
       </c>
-      <c r="V178" s="2">
+      <c r="V178">
+        <f t="shared" si="6"/>
+        <v>781680</v>
+      </c>
+      <c r="W178" s="2">
         <v>390840</v>
       </c>
     </row>
-    <row r="179" spans="1:22">
+    <row r="179" spans="1:23">
       <c r="A179">
         <v>63</v>
       </c>
@@ -9882,11 +10445,15 @@
       <c r="U179" s="2">
         <v>1023</v>
       </c>
-      <c r="V179" s="2">
+      <c r="V179">
+        <f t="shared" si="6"/>
+        <v>805512</v>
+      </c>
+      <c r="W179" s="2">
         <v>402756</v>
       </c>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:23">
       <c r="A180">
         <v>64</v>
       </c>
@@ -9899,11 +10466,15 @@
       <c r="U180" s="2">
         <v>1024</v>
       </c>
-      <c r="V180" s="2">
+      <c r="V180">
+        <f t="shared" si="6"/>
+        <v>790734</v>
+      </c>
+      <c r="W180" s="2">
         <v>395367</v>
       </c>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:23">
       <c r="A181">
         <v>127</v>
       </c>
@@ -9916,11 +10487,15 @@
       <c r="U181" s="2">
         <v>1</v>
       </c>
-      <c r="V181" s="2">
+      <c r="V181">
+        <f t="shared" si="6"/>
+        <v>22222.2</v>
+      </c>
+      <c r="W181" s="2">
         <v>11111.1</v>
       </c>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:23">
       <c r="A182">
         <v>128</v>
       </c>
@@ -9933,11 +10508,15 @@
       <c r="U182" s="2">
         <v>2</v>
       </c>
-      <c r="V182" s="2">
+      <c r="V182">
+        <f t="shared" si="6"/>
+        <v>33333.4</v>
+      </c>
+      <c r="W182" s="2">
         <v>16666.7</v>
       </c>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:23">
       <c r="A183">
         <v>255</v>
       </c>
@@ -9950,11 +10529,15 @@
       <c r="U183" s="2">
         <v>3</v>
       </c>
-      <c r="V183" s="2">
+      <c r="V183">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="W183" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:23">
       <c r="A184">
         <v>256</v>
       </c>
@@ -9967,11 +10550,15 @@
       <c r="U184" s="2">
         <v>4</v>
       </c>
-      <c r="V184" s="2">
+      <c r="V184">
+        <f t="shared" si="6"/>
+        <v>72727.2</v>
+      </c>
+      <c r="W184" s="2">
         <v>36363.6</v>
       </c>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:23">
       <c r="A185">
         <v>511</v>
       </c>
@@ -9984,11 +10571,15 @@
       <c r="U185" s="2">
         <v>7</v>
       </c>
-      <c r="V185" s="2">
+      <c r="V185">
+        <f t="shared" si="6"/>
+        <v>140000</v>
+      </c>
+      <c r="W185" s="2">
         <v>70000</v>
       </c>
     </row>
-    <row r="186" spans="1:22">
+    <row r="186" spans="1:23">
       <c r="A186">
         <v>512</v>
       </c>
@@ -10001,11 +10592,15 @@
       <c r="U186" s="2">
         <v>8</v>
       </c>
-      <c r="V186" s="2">
+      <c r="V186">
+        <f t="shared" si="6"/>
+        <v>145454.6</v>
+      </c>
+      <c r="W186" s="2">
         <v>72727.3</v>
       </c>
     </row>
-    <row r="187" spans="1:22">
+    <row r="187" spans="1:23">
       <c r="A187">
         <v>1</v>
       </c>
@@ -10018,11 +10613,15 @@
       <c r="U187" s="2">
         <v>15</v>
       </c>
-      <c r="V187" s="2">
+      <c r="V187">
+        <f t="shared" si="6"/>
+        <v>300000</v>
+      </c>
+      <c r="W187" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="188" spans="1:22">
+    <row r="188" spans="1:23">
       <c r="A188">
         <v>2</v>
       </c>
@@ -10035,11 +10634,15 @@
       <c r="U188" s="2">
         <v>16</v>
       </c>
-      <c r="V188" s="2">
+      <c r="V188">
+        <f t="shared" si="6"/>
+        <v>290910</v>
+      </c>
+      <c r="W188" s="2">
         <v>145455</v>
       </c>
     </row>
-    <row r="189" spans="1:22">
+    <row r="189" spans="1:23">
       <c r="A189">
         <v>3</v>
       </c>
@@ -10052,11 +10655,15 @@
       <c r="U189" s="2">
         <v>31</v>
       </c>
-      <c r="V189" s="2">
+      <c r="V189">
+        <f t="shared" si="6"/>
+        <v>364706</v>
+      </c>
+      <c r="W189" s="2">
         <v>182353</v>
       </c>
     </row>
-    <row r="190" spans="1:22">
+    <row r="190" spans="1:23">
       <c r="A190">
         <v>4</v>
       </c>
@@ -10069,11 +10676,15 @@
       <c r="U190" s="2">
         <v>32</v>
       </c>
-      <c r="V190" s="2">
+      <c r="V190">
+        <f t="shared" si="6"/>
+        <v>376470</v>
+      </c>
+      <c r="W190" s="2">
         <v>188235</v>
       </c>
     </row>
-    <row r="191" spans="1:22">
+    <row r="191" spans="1:23">
       <c r="A191">
         <v>7</v>
       </c>
@@ -10086,11 +10697,15 @@
       <c r="U191" s="2">
         <v>63</v>
       </c>
-      <c r="V191" s="2">
+      <c r="V191">
+        <f t="shared" si="6"/>
+        <v>393750</v>
+      </c>
+      <c r="W191" s="2">
         <v>196875</v>
       </c>
     </row>
-    <row r="192" spans="1:22">
+    <row r="192" spans="1:23">
       <c r="A192">
         <v>8</v>
       </c>
@@ -10103,11 +10718,15 @@
       <c r="U192" s="2">
         <v>64</v>
       </c>
-      <c r="V192" s="2">
+      <c r="V192">
+        <f t="shared" si="6"/>
+        <v>474074</v>
+      </c>
+      <c r="W192" s="2">
         <v>237037</v>
       </c>
     </row>
-    <row r="193" spans="1:22">
+    <row r="193" spans="1:23">
       <c r="A193">
         <v>15</v>
       </c>
@@ -10120,11 +10739,15 @@
       <c r="U193" s="2">
         <v>127</v>
       </c>
-      <c r="V193" s="2">
+      <c r="V193">
+        <f t="shared" si="6"/>
+        <v>651282</v>
+      </c>
+      <c r="W193" s="2">
         <v>325641</v>
       </c>
     </row>
-    <row r="194" spans="1:22">
+    <row r="194" spans="1:23">
       <c r="A194">
         <v>16</v>
       </c>
@@ -10137,11 +10760,15 @@
       <c r="U194" s="2">
         <v>128</v>
       </c>
-      <c r="V194" s="2">
+      <c r="V194">
+        <f t="shared" si="6"/>
+        <v>673684</v>
+      </c>
+      <c r="W194" s="2">
         <v>336842</v>
       </c>
     </row>
-    <row r="195" spans="1:22">
+    <row r="195" spans="1:23">
       <c r="A195">
         <v>31</v>
       </c>
@@ -10154,11 +10781,15 @@
       <c r="U195" s="2">
         <v>255</v>
       </c>
-      <c r="V195" s="2">
+      <c r="V195">
+        <f t="shared" si="6"/>
+        <v>689190</v>
+      </c>
+      <c r="W195" s="2">
         <v>344595</v>
       </c>
     </row>
-    <row r="196" spans="1:22">
+    <row r="196" spans="1:23">
       <c r="A196">
         <v>32</v>
       </c>
@@ -10171,11 +10802,15 @@
       <c r="U196" s="2">
         <v>256</v>
       </c>
-      <c r="V196" s="2">
+      <c r="V196">
+        <f t="shared" si="6"/>
+        <v>775758</v>
+      </c>
+      <c r="W196" s="2">
         <v>387879</v>
       </c>
     </row>
-    <row r="197" spans="1:22">
+    <row r="197" spans="1:23">
       <c r="A197">
         <v>63</v>
       </c>
@@ -10188,11 +10823,15 @@
       <c r="U197" s="2">
         <v>511</v>
       </c>
-      <c r="V197" s="2">
+      <c r="V197">
+        <f t="shared" si="6"/>
+        <v>811112</v>
+      </c>
+      <c r="W197" s="2">
         <v>405556</v>
       </c>
     </row>
-    <row r="198" spans="1:22">
+    <row r="198" spans="1:23">
       <c r="A198">
         <v>64</v>
       </c>
@@ -10205,11 +10844,15 @@
       <c r="U198" s="2">
         <v>512</v>
       </c>
-      <c r="V198" s="2">
+      <c r="V198">
+        <f t="shared" si="6"/>
+        <v>764180</v>
+      </c>
+      <c r="W198" s="2">
         <v>382090</v>
       </c>
     </row>
-    <row r="199" spans="1:22">
+    <row r="199" spans="1:23">
       <c r="A199">
         <v>127</v>
       </c>
@@ -10222,11 +10865,15 @@
       <c r="U199" s="2">
         <v>1023</v>
       </c>
-      <c r="V199" s="2">
+      <c r="V199">
+        <f t="shared" si="6"/>
+        <v>874358</v>
+      </c>
+      <c r="W199" s="2">
         <v>437179</v>
       </c>
     </row>
-    <row r="200" spans="1:22">
+    <row r="200" spans="1:23">
       <c r="A200">
         <v>128</v>
       </c>
@@ -10239,7 +10886,11 @@
       <c r="U200" s="2">
         <v>1024</v>
       </c>
-      <c r="V200" s="2">
+      <c r="V200">
+        <f>2*W200</f>
+        <v>853334</v>
+      </c>
+      <c r="W200" s="2">
         <v>426667</v>
       </c>
     </row>
